--- a/Assets/Models/Vehicle/OpenCAV/Documents/Pacifica_Transmission_Map.xlsx
+++ b/Assets/Models/Vehicle/OpenCAV/Documents/Pacifica_Transmission_Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsamak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsamak\Workspace\AutoDRIVE Simulator\Assets\Models\Vehicle\OpenCAV\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B5EF63-160C-488A-BC23-1BE11B3DBF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94BC231-7989-49D0-96EA-81ADF51EAFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="1" r:id="rId1"/>
@@ -444,16 +444,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -465,18 +468,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -484,44 +484,7 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -612,6 +575,3858 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Transmission Map</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="30"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:surface3DChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculator!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculator!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>882.13900850727157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>533.03718811928752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>358.48627792529544</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>259.0110280297946</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>187.68915074622799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>152.02821210444469</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>131.38240552235959</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>108.85970743281223</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.090792358189432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A21B-4F91-9D7B-60595562157F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculator!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculator!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1764.2780170145431</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1066.074376238575</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>716.97255585059088</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>518.0220560595892</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>375.37830149245599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>304.05642420888938</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>262.76481104471918</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>217.71941486562446</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180.18158471637886</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A21B-4F91-9D7B-60595562157F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculator!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculator!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2646.417025521815</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1599.1115643578626</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1075.4588337758864</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>777.03308408938392</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>563.06745223868404</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>456.0846363133341</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>394.14721656707883</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>326.57912229843674</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270.27237707456834</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A21B-4F91-9D7B-60595562157F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculator!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent4">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculator!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3528.5560340290863</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2132.1487524771501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1433.9451117011818</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1036.0441121191784</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>750.75660298491198</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>608.11284841777876</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>525.52962208943836</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>435.43882973124892</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360.36316943275773</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A21B-4F91-9D7B-60595562157F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculator!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent5">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculator!$H$2:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4410.6950425363584</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2665.1859405964374</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1792.4313896264773</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1295.0551401489731</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>938.44575373114003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>760.14106052222348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>656.91202761179795</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>544.29853716406114</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450.45396179094718</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A21B-4F91-9D7B-60595562157F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculator!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent6">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculator!$I$2:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5292.8340510436301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3198.2231287157251</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2150.9176675517729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1554.0661681787678</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1126.1349044773681</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>912.1692726266682</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>788.29443313415766</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>653.15824459687349</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>540.54475414913668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A21B-4F91-9D7B-60595562157F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculator!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculator!$J$2:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6174.9730595509009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3731.260316835012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2509.4039454770682</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1813.0771962085621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1313.8240552235959</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1064.1974847311128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>919.67683865651702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>762.0179520296856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>630.63554650732601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A21B-4F91-9D7B-60595562157F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculator!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculator!$K$2:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7057.1120680581726</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4264.2975049543002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2867.8902234023635</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2072.0882242383568</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1501.513205969824</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1216.2256968355575</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1051.0592441788767</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>870.87765946249783</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>720.72633886551546</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-A21B-4F91-9D7B-60595562157F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculator!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculator!$L$2:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7939.2510765654451</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4797.3346930735879</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3226.3765013276593</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2331.0992522681518</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1689.202356716052</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1368.2539089400022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1182.4416497012364</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>979.73736689531006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>810.81713122370491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-A21B-4F91-9D7B-60595562157F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculator!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculator!$M$2:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8821.3900850727168</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5330.3718811928748</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3584.8627792529546</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2590.1102802979462</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1876.8915074622801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1520.282121044447</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1313.8240552235959</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1088.5970743281223</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900.90792358189435</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-A21B-4F91-9D7B-60595562157F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculator!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculator!$N$2:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9703.5290935799894</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5863.4090693121634</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3943.3490571782509</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2849.1213083277412</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2064.5806582085083</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1672.3103331488919</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1445.2064607459558</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1197.4567817609347</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>990.99871594008391</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-A21B-4F91-9D7B-60595562157F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculator!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculator!$O$2:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10585.66810208726</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6396.4462574314502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4301.8353351035457</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3108.1323363575357</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2252.2698089547362</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1824.3385452533364</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1576.5888662683153</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1306.316489193747</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1081.0895082982734</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-A21B-4F91-9D7B-60595562157F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculator!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculator!$P$2:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>11467.807110594531</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6929.4834455507371</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4660.3216130288411</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3367.1433643873302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2439.958959700964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1976.3667573577809</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1707.9712717906748</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1415.176196626559</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1171.1803006564626</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-A21B-4F91-9D7B-60595562157F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculator!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculator!$Q$2:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12349.946119101802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7462.5206336700239</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5018.8078909541364</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3626.1543924171242</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2627.6481104471918</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2128.3949694622256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1839.353677313034</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1524.0359040593712</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1261.271093014652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-A21B-4F91-9D7B-60595562157F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculator!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculator!$R$2:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>13232.085127609074</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7995.5578217893126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5377.2941688794317</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3885.1654204469196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2815.3372611934201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2280.4231815666703</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1970.736082835394</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1632.8956114921834</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1351.3618853728417</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-A21B-4F91-9D7B-60595562157F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculator!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculator!$S$2:$S$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>14114.224136116345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8528.5950099086003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5735.780446804727</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4144.1764484767136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3003.0264119396479</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2432.4513936711151</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2102.1184883577534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1741.7553189249957</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1441.4526777310309</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-A21B-4F91-9D7B-60595562157F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculator!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculator!$T$2:$T$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>14996.36314462362</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9061.6321980278881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6094.2667247300233</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4403.1874765065086</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3190.7155626858762</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2584.4796057755598</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2233.5008938801134</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1850.6150263578081</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1531.5434700892206</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-A21B-4F91-9D7B-60595562157F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculator!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculator!$U$2:$U$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>15878.50215313089</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9594.6693861471758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6452.7530026553186</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4662.1985045363035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3378.404713432104</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2736.5078178800045</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2364.8832994024729</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1959.4747337906201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1621.6342624474098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-A21B-4F91-9D7B-60595562157F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculator!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculator!$V$2:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16760.641161638163</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10127.706574266464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6811.2392805806148</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4921.2095325660985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3566.0938641783323</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2888.5360299844492</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2496.2657049248323</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2068.3344412234328</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1711.7250548055995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-A21B-4F91-9D7B-60595562157F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculator!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculator!$W$2:$W$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>17642.780170145434</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10660.74376238575</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7169.7255585059092</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5180.2205605958925</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3753.7830149245601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3040.5642420888939</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2627.6481104471918</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2177.1941486562446</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1801.8158471637887</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-A21B-4F91-9D7B-60595562157F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculator!$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>105</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculator!$X$2:$X$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>18524.919178652704</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11193.780950505039</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7528.2118364312055</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5439.2315886256874</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3941.4721656707884</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3192.5924541933387</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2759.0305159695517</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2286.0538560890573</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1891.9066395219784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-A21B-4F91-9D7B-60595562157F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculator!$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculator!$Y$2:$Y$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>19407.058187159979</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11726.818138624327</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7886.6981143565017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5698.2426166554824</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4129.1613164170167</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3344.6206662977838</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2890.4129214919117</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2394.9135635218695</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1981.9974318801678</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-A21B-4F91-9D7B-60595562157F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculator!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>115</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculator!$Z$2:$Z$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>20289.19719566725</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12259.855326743615</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8245.184392281797</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5957.2536446852773</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4316.8504671632445</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3496.6488784022281</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3021.7953270142712</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2503.7732709546817</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2072.0882242383573</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-A21B-4F91-9D7B-60595562157F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="23"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculator!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculator!$AA$2:$AA$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>21171.33620417452</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12792.8925148629</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8603.6706702070915</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6216.2646727150714</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4504.5396179094723</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3648.6770905066728</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3153.1777325366306</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2612.6329783874939</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2162.1790165965467</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-A21B-4F91-9D7B-60595562157F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="492225647"/>
+        <c:axId val="414739551"/>
+        <c:axId val="416435455"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="492225647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gear (#)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="414739551"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="414739551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Engine (RPM)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492225647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="416435455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speed (MPH)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.65343045290966095"/>
+              <c:y val="0.59412745968895386"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="414739551"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65A8C8F7-E21D-D23B-A83E-1EBC0193F8E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -877,10 +4692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB22"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -888,17 +4703,17 @@
     <col min="1" max="1" width="21.90625" customWidth="1"/>
     <col min="2" max="2" width="7.1796875" style="12" customWidth="1"/>
     <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="28" width="6.7265625" customWidth="1"/>
+    <col min="4" max="27" width="6.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="23" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="8">
@@ -923,61 +4738,58 @@
         <v>35</v>
       </c>
       <c r="K1" s="8">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L1" s="8">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M1" s="8">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N1" s="8">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="O1" s="8">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="P1" s="8">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Q1" s="8">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="R1" s="8">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="S1" s="8">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="T1" s="8">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U1" s="8">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="V1" s="8">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="W1" s="8">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="X1" s="8">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Y1" s="8">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="Z1" s="8">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AA1" s="8">
-        <v>115</v>
-      </c>
-      <c r="AB1" s="8">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -988,7 +4800,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="14">
-        <f t="shared" ref="D2:M10" si="0">(((D$1 * 5280 * 12)/60)/$C$16)*$B$12*$B2</f>
+        <f t="shared" ref="D2:L10" si="0">(((D$1 * 5280 * 12)/60)/$C$16)*$B$12*$B2</f>
         <v>882.13900850727157</v>
       </c>
       <c r="E2" s="2">
@@ -1015,80 +4827,76 @@
         <f t="shared" si="0"/>
         <v>6174.9730595509009</v>
       </c>
-      <c r="K2" s="3">
-        <f t="shared" si="0"/>
-        <v>6174.9730595509009</v>
+      <c r="K2" s="4">
+        <f t="shared" si="0"/>
+        <v>7057.1120680581726</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>7057.1120680581726</v>
+        <v>7939.2510765654451</v>
       </c>
       <c r="M2" s="4">
-        <f t="shared" si="0"/>
-        <v>7939.2510765654451</v>
+        <f t="shared" ref="M2:U10" si="1">(((M$1 * 5280 * 12)/60)/$C$16)*$B$12*$B2</f>
+        <v>8821.3900850727168</v>
       </c>
       <c r="N2" s="4">
-        <f t="shared" ref="N2:V10" si="1">(((N$1 * 5280 * 12)/60)/$C$16)*$B$12*$B2</f>
-        <v>8821.3900850727168</v>
+        <f t="shared" si="1"/>
+        <v>9703.5290935799894</v>
       </c>
       <c r="O2" s="4">
         <f t="shared" si="1"/>
-        <v>9703.5290935799894</v>
+        <v>10585.66810208726</v>
       </c>
       <c r="P2" s="4">
         <f t="shared" si="1"/>
-        <v>10585.66810208726</v>
+        <v>11467.807110594531</v>
       </c>
       <c r="Q2" s="4">
         <f t="shared" si="1"/>
-        <v>11467.807110594531</v>
+        <v>12349.946119101802</v>
       </c>
       <c r="R2" s="4">
         <f t="shared" si="1"/>
-        <v>12349.946119101802</v>
-      </c>
-      <c r="S2" s="4">
-        <f t="shared" si="1"/>
         <v>13232.085127609074</v>
       </c>
+      <c r="S2" s="2">
+        <f t="shared" si="1"/>
+        <v>14114.224136116345</v>
+      </c>
       <c r="T2" s="2">
         <f t="shared" si="1"/>
-        <v>14114.224136116345</v>
+        <v>14996.36314462362</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="1"/>
-        <v>14996.36314462362</v>
+        <v>15878.50215313089</v>
       </c>
       <c r="V2" s="2">
-        <f t="shared" si="1"/>
-        <v>15878.50215313089</v>
+        <f t="shared" ref="V2:Z10" si="2">(((V$1 * 5280 * 12)/60)/$C$16)*$B$12*$B2</f>
+        <v>16760.641161638163</v>
       </c>
       <c r="W2" s="2">
-        <f t="shared" ref="W2:AA10" si="2">(((W$1 * 5280 * 12)/60)/$C$16)*$B$12*$B2</f>
-        <v>16760.641161638163</v>
+        <f t="shared" si="2"/>
+        <v>17642.780170145434</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" si="2"/>
-        <v>17642.780170145434</v>
+        <v>18524.919178652704</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="2"/>
-        <v>18524.919178652704</v>
+        <v>19407.058187159979</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" si="2"/>
-        <v>19407.058187159979</v>
-      </c>
-      <c r="AA2" s="2">
-        <f t="shared" si="2"/>
         <v>20289.19719566725</v>
       </c>
-      <c r="AB2" s="4">
-        <f t="shared" ref="AB2:AB10" si="3">(((AB$1 * 5280 * 12)/60)/$C$16)*$B$12*$B2</f>
+      <c r="AA2" s="4">
+        <f t="shared" ref="AA2:AA10" si="3">(((AA$1 * 5280 * 12)/60)/$C$16)*$B$12*$B2</f>
         <v>21171.33620417452</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -1128,78 +4936,74 @@
       </c>
       <c r="K3" s="3">
         <f t="shared" si="0"/>
-        <v>3731.260316835012</v>
+        <v>4264.2975049543002</v>
       </c>
       <c r="L3" s="3">
         <f t="shared" si="0"/>
-        <v>4264.2975049543002</v>
+        <v>4797.3346930735879</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" si="0"/>
-        <v>4797.3346930735879</v>
+        <f t="shared" si="1"/>
+        <v>5330.3718811928748</v>
       </c>
       <c r="N3" s="3">
         <f t="shared" si="1"/>
-        <v>5330.3718811928748</v>
-      </c>
-      <c r="O3" s="3">
-        <f t="shared" si="1"/>
         <v>5863.4090693121634</v>
       </c>
+      <c r="O3" s="4">
+        <f t="shared" si="1"/>
+        <v>6396.4462574314502</v>
+      </c>
       <c r="P3" s="4">
         <f t="shared" si="1"/>
-        <v>6396.4462574314502</v>
+        <v>6929.4834455507371</v>
       </c>
       <c r="Q3" s="4">
         <f t="shared" si="1"/>
-        <v>6929.4834455507371</v>
+        <v>7462.5206336700239</v>
       </c>
       <c r="R3" s="4">
         <f t="shared" si="1"/>
-        <v>7462.5206336700239</v>
-      </c>
-      <c r="S3" s="4">
-        <f t="shared" si="1"/>
         <v>7995.5578217893126</v>
       </c>
+      <c r="S3" s="5">
+        <f t="shared" si="1"/>
+        <v>8528.5950099086003</v>
+      </c>
       <c r="T3" s="5">
         <f t="shared" si="1"/>
-        <v>8528.5950099086003</v>
+        <v>9061.6321980278881</v>
       </c>
       <c r="U3" s="5">
         <f t="shared" si="1"/>
-        <v>9061.6321980278881</v>
+        <v>9594.6693861471758</v>
       </c>
       <c r="V3" s="5">
-        <f t="shared" si="1"/>
-        <v>9594.6693861471758</v>
+        <f t="shared" si="2"/>
+        <v>10127.706574266464</v>
       </c>
       <c r="W3" s="5">
         <f t="shared" si="2"/>
-        <v>10127.706574266464</v>
+        <v>10660.74376238575</v>
       </c>
       <c r="X3" s="5">
         <f t="shared" si="2"/>
-        <v>10660.74376238575</v>
+        <v>11193.780950505039</v>
       </c>
       <c r="Y3" s="5">
         <f t="shared" si="2"/>
-        <v>11193.780950505039</v>
+        <v>11726.818138624327</v>
       </c>
       <c r="Z3" s="5">
         <f t="shared" si="2"/>
-        <v>11726.818138624327</v>
-      </c>
-      <c r="AA3" s="5">
-        <f t="shared" si="2"/>
         <v>12259.855326743615</v>
       </c>
-      <c r="AB3" s="4">
+      <c r="AA3" s="4">
         <f t="shared" si="3"/>
         <v>12792.8925148629</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -1237,80 +5041,76 @@
         <f t="shared" si="0"/>
         <v>2509.4039454770682</v>
       </c>
-      <c r="K4" s="10">
-        <f t="shared" si="0"/>
-        <v>2509.4039454770682</v>
+      <c r="K4" s="3">
+        <f t="shared" si="0"/>
+        <v>2867.8902234023635</v>
       </c>
       <c r="L4" s="3">
         <f t="shared" si="0"/>
-        <v>2867.8902234023635</v>
+        <v>3226.3765013276593</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" si="0"/>
-        <v>3226.3765013276593</v>
+        <f t="shared" si="1"/>
+        <v>3584.8627792529546</v>
       </c>
       <c r="N4" s="3">
         <f t="shared" si="1"/>
-        <v>3584.8627792529546</v>
+        <v>3943.3490571782509</v>
       </c>
       <c r="O4" s="3">
         <f t="shared" si="1"/>
-        <v>3943.3490571782509</v>
+        <v>4301.8353351035457</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" si="1"/>
-        <v>4301.8353351035457</v>
+        <v>4660.3216130288411</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" si="1"/>
-        <v>4660.3216130288411</v>
+        <v>5018.8078909541364</v>
       </c>
       <c r="R4" s="3">
         <f t="shared" si="1"/>
-        <v>5018.8078909541364</v>
+        <v>5377.2941688794317</v>
       </c>
       <c r="S4" s="3">
         <f t="shared" si="1"/>
-        <v>5377.2941688794317</v>
+        <v>5735.780446804727</v>
       </c>
       <c r="T4" s="3">
         <f t="shared" si="1"/>
-        <v>5735.780446804727</v>
+        <v>6094.2667247300233</v>
       </c>
       <c r="U4" s="3">
         <f t="shared" si="1"/>
-        <v>6094.2667247300233</v>
+        <v>6452.7530026553186</v>
       </c>
       <c r="V4" s="3">
-        <f t="shared" si="1"/>
-        <v>6452.7530026553186</v>
+        <f t="shared" si="2"/>
+        <v>6811.2392805806148</v>
       </c>
       <c r="W4" s="3">
         <f t="shared" si="2"/>
-        <v>6811.2392805806148</v>
+        <v>7169.7255585059092</v>
       </c>
       <c r="X4" s="3">
         <f t="shared" si="2"/>
-        <v>7169.7255585059092</v>
+        <v>7528.2118364312055</v>
       </c>
       <c r="Y4" s="3">
         <f t="shared" si="2"/>
-        <v>7528.2118364312055</v>
+        <v>7886.6981143565017</v>
       </c>
       <c r="Z4" s="3">
         <f t="shared" si="2"/>
-        <v>7886.6981143565017</v>
+        <v>8245.184392281797</v>
       </c>
       <c r="AA4" s="3">
-        <f t="shared" si="2"/>
-        <v>8245.184392281797</v>
-      </c>
-      <c r="AB4" s="3">
         <f t="shared" si="3"/>
         <v>8603.6706702070915</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -1348,80 +5148,76 @@
         <f t="shared" si="0"/>
         <v>1813.0771962085621</v>
       </c>
-      <c r="K5" s="2">
-        <f t="shared" si="0"/>
-        <v>1813.0771962085621</v>
+      <c r="K5" s="6">
+        <f t="shared" si="0"/>
+        <v>2072.0882242383568</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" si="0"/>
-        <v>2072.0882242383568</v>
-      </c>
-      <c r="M5" s="6">
-        <f t="shared" si="0"/>
         <v>2331.0992522681518</v>
       </c>
+      <c r="M5" s="3">
+        <f t="shared" si="1"/>
+        <v>2590.1102802979462</v>
+      </c>
       <c r="N5" s="3">
         <f t="shared" si="1"/>
-        <v>2590.1102802979462</v>
+        <v>2849.1213083277412</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="1"/>
-        <v>2849.1213083277412</v>
+        <v>3108.1323363575357</v>
       </c>
       <c r="P5" s="3">
         <f t="shared" si="1"/>
-        <v>3108.1323363575357</v>
+        <v>3367.1433643873302</v>
       </c>
       <c r="Q5" s="3">
         <f t="shared" si="1"/>
-        <v>3367.1433643873302</v>
+        <v>3626.1543924171242</v>
       </c>
       <c r="R5" s="3">
         <f t="shared" si="1"/>
-        <v>3626.1543924171242</v>
+        <v>3885.1654204469196</v>
       </c>
       <c r="S5" s="3">
         <f t="shared" si="1"/>
-        <v>3885.1654204469196</v>
+        <v>4144.1764484767136</v>
       </c>
       <c r="T5" s="3">
         <f t="shared" si="1"/>
-        <v>4144.1764484767136</v>
+        <v>4403.1874765065086</v>
       </c>
       <c r="U5" s="3">
         <f t="shared" si="1"/>
-        <v>4403.1874765065086</v>
+        <v>4662.1985045363035</v>
       </c>
       <c r="V5" s="3">
-        <f t="shared" si="1"/>
-        <v>4662.1985045363035</v>
+        <f t="shared" si="2"/>
+        <v>4921.2095325660985</v>
       </c>
       <c r="W5" s="3">
         <f t="shared" si="2"/>
-        <v>4921.2095325660985</v>
+        <v>5180.2205605958925</v>
       </c>
       <c r="X5" s="3">
         <f t="shared" si="2"/>
-        <v>5180.2205605958925</v>
+        <v>5439.2315886256874</v>
       </c>
       <c r="Y5" s="3">
         <f t="shared" si="2"/>
-        <v>5439.2315886256874</v>
+        <v>5698.2426166554824</v>
       </c>
       <c r="Z5" s="3">
         <f t="shared" si="2"/>
-        <v>5698.2426166554824</v>
-      </c>
-      <c r="AA5" s="3">
-        <f t="shared" si="2"/>
         <v>5957.2536446852773</v>
       </c>
-      <c r="AB5" s="4">
+      <c r="AA5" s="4">
         <f t="shared" si="3"/>
         <v>6216.2646727150714</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -1459,80 +5255,76 @@
         <f t="shared" si="0"/>
         <v>1313.8240552235959</v>
       </c>
-      <c r="K6" s="5">
-        <f t="shared" si="0"/>
-        <v>1313.8240552235959</v>
+      <c r="K6" s="2">
+        <f t="shared" si="0"/>
+        <v>1501.513205969824</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="0"/>
-        <v>1501.513205969824</v>
+        <v>1689.202356716052</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" si="0"/>
-        <v>1689.202356716052</v>
+        <f t="shared" si="1"/>
+        <v>1876.8915074622801</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="1"/>
-        <v>1876.8915074622801</v>
-      </c>
-      <c r="O6" s="2">
-        <f t="shared" si="1"/>
         <v>2064.5806582085083</v>
       </c>
+      <c r="O6" s="6">
+        <f t="shared" si="1"/>
+        <v>2252.2698089547362</v>
+      </c>
       <c r="P6" s="6">
         <f t="shared" si="1"/>
-        <v>2252.2698089547362</v>
-      </c>
-      <c r="Q6" s="6">
-        <f t="shared" si="1"/>
         <v>2439.958959700964</v>
       </c>
+      <c r="Q6" s="3">
+        <f t="shared" si="1"/>
+        <v>2627.6481104471918</v>
+      </c>
       <c r="R6" s="3">
         <f t="shared" si="1"/>
-        <v>2627.6481104471918</v>
+        <v>2815.3372611934201</v>
       </c>
       <c r="S6" s="3">
         <f t="shared" si="1"/>
-        <v>2815.3372611934201</v>
+        <v>3003.0264119396479</v>
       </c>
       <c r="T6" s="3">
         <f t="shared" si="1"/>
-        <v>3003.0264119396479</v>
+        <v>3190.7155626858762</v>
       </c>
       <c r="U6" s="3">
         <f t="shared" si="1"/>
-        <v>3190.7155626858762</v>
+        <v>3378.404713432104</v>
       </c>
       <c r="V6" s="3">
-        <f t="shared" si="1"/>
-        <v>3378.404713432104</v>
+        <f t="shared" si="2"/>
+        <v>3566.0938641783323</v>
       </c>
       <c r="W6" s="3">
         <f t="shared" si="2"/>
-        <v>3566.0938641783323</v>
+        <v>3753.7830149245601</v>
       </c>
       <c r="X6" s="3">
         <f t="shared" si="2"/>
-        <v>3753.7830149245601</v>
+        <v>3941.4721656707884</v>
       </c>
       <c r="Y6" s="3">
         <f t="shared" si="2"/>
-        <v>3941.4721656707884</v>
+        <v>4129.1613164170167</v>
       </c>
       <c r="Z6" s="3">
         <f t="shared" si="2"/>
-        <v>4129.1613164170167</v>
+        <v>4316.8504671632445</v>
       </c>
       <c r="AA6" s="3">
-        <f t="shared" si="2"/>
-        <v>4316.8504671632445</v>
-      </c>
-      <c r="AB6" s="3">
         <f t="shared" si="3"/>
         <v>4504.5396179094723</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
@@ -1570,80 +5362,76 @@
         <f t="shared" si="0"/>
         <v>1064.1974847311128</v>
       </c>
-      <c r="K7" s="3">
-        <f t="shared" si="0"/>
-        <v>1064.1974847311128</v>
+      <c r="K7" s="5">
+        <f t="shared" si="0"/>
+        <v>1216.2256968355575</v>
       </c>
       <c r="L7" s="5">
         <f t="shared" si="0"/>
-        <v>1216.2256968355575</v>
-      </c>
-      <c r="M7" s="5">
-        <f t="shared" si="0"/>
         <v>1368.2539089400022</v>
       </c>
+      <c r="M7" s="2">
+        <f t="shared" si="1"/>
+        <v>1520.282121044447</v>
+      </c>
       <c r="N7" s="2">
         <f t="shared" si="1"/>
-        <v>1520.282121044447</v>
+        <v>1672.3103331488919</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="1"/>
-        <v>1672.3103331488919</v>
+        <v>1824.3385452533364</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="1"/>
-        <v>1824.3385452533364</v>
-      </c>
-      <c r="Q7" s="2">
-        <f t="shared" si="1"/>
         <v>1976.3667573577809</v>
       </c>
+      <c r="Q7" s="6">
+        <f t="shared" si="1"/>
+        <v>2128.3949694622256</v>
+      </c>
       <c r="R7" s="6">
         <f t="shared" si="1"/>
-        <v>2128.3949694622256</v>
-      </c>
-      <c r="S7" s="6">
-        <f t="shared" si="1"/>
         <v>2280.4231815666703</v>
       </c>
-      <c r="T7" s="4">
+      <c r="S7" s="4">
         <f t="shared" si="1"/>
         <v>2432.4513936711151</v>
       </c>
+      <c r="T7" s="3">
+        <f t="shared" si="1"/>
+        <v>2584.4796057755598</v>
+      </c>
       <c r="U7" s="3">
         <f t="shared" si="1"/>
-        <v>2584.4796057755598</v>
+        <v>2736.5078178800045</v>
       </c>
       <c r="V7" s="3">
-        <f t="shared" si="1"/>
-        <v>2736.5078178800045</v>
+        <f t="shared" si="2"/>
+        <v>2888.5360299844492</v>
       </c>
       <c r="W7" s="3">
         <f t="shared" si="2"/>
-        <v>2888.5360299844492</v>
+        <v>3040.5642420888939</v>
       </c>
       <c r="X7" s="3">
         <f t="shared" si="2"/>
-        <v>3040.5642420888939</v>
+        <v>3192.5924541933387</v>
       </c>
       <c r="Y7" s="3">
         <f t="shared" si="2"/>
-        <v>3192.5924541933387</v>
+        <v>3344.6206662977838</v>
       </c>
       <c r="Z7" s="3">
         <f t="shared" si="2"/>
-        <v>3344.6206662977838</v>
-      </c>
-      <c r="AA7" s="3">
-        <f t="shared" si="2"/>
         <v>3496.6488784022281</v>
       </c>
-      <c r="AB7" s="15">
+      <c r="AA7" s="15">
         <f t="shared" si="3"/>
         <v>3648.6770905066728</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
@@ -1681,80 +5469,76 @@
         <f t="shared" si="0"/>
         <v>919.67683865651702</v>
       </c>
-      <c r="K8" s="3">
-        <f t="shared" si="0"/>
-        <v>919.67683865651702</v>
+      <c r="K8" s="5">
+        <f t="shared" si="0"/>
+        <v>1051.0592441788767</v>
       </c>
       <c r="L8" s="5">
         <f t="shared" si="0"/>
-        <v>1051.0592441788767</v>
+        <v>1182.4416497012364</v>
       </c>
       <c r="M8" s="5">
-        <f t="shared" si="0"/>
-        <v>1182.4416497012364</v>
+        <f t="shared" si="1"/>
+        <v>1313.8240552235959</v>
       </c>
       <c r="N8" s="5">
         <f t="shared" si="1"/>
-        <v>1313.8240552235959</v>
-      </c>
-      <c r="O8" s="5">
-        <f t="shared" si="1"/>
         <v>1445.2064607459558</v>
       </c>
+      <c r="O8" s="2">
+        <f t="shared" si="1"/>
+        <v>1576.5888662683153</v>
+      </c>
       <c r="P8" s="2">
         <f t="shared" si="1"/>
-        <v>1576.5888662683153</v>
+        <v>1707.9712717906748</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="1"/>
-        <v>1707.9712717906748</v>
+        <v>1839.353677313034</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="1"/>
-        <v>1839.353677313034</v>
-      </c>
-      <c r="S8" s="2">
-        <f t="shared" si="1"/>
         <v>1970.736082835394</v>
       </c>
+      <c r="S8" s="4">
+        <f t="shared" si="1"/>
+        <v>2102.1184883577534</v>
+      </c>
       <c r="T8" s="4">
         <f t="shared" si="1"/>
-        <v>2102.1184883577534</v>
+        <v>2233.5008938801134</v>
       </c>
       <c r="U8" s="4">
         <f t="shared" si="1"/>
-        <v>2233.5008938801134</v>
+        <v>2364.8832994024729</v>
       </c>
       <c r="V8" s="4">
-        <f t="shared" si="1"/>
-        <v>2364.8832994024729</v>
-      </c>
-      <c r="W8" s="4">
         <f t="shared" si="2"/>
         <v>2496.2657049248323</v>
       </c>
+      <c r="W8" s="3">
+        <f t="shared" si="2"/>
+        <v>2627.6481104471918</v>
+      </c>
       <c r="X8" s="3">
         <f t="shared" si="2"/>
-        <v>2627.6481104471918</v>
+        <v>2759.0305159695517</v>
       </c>
       <c r="Y8" s="3">
         <f t="shared" si="2"/>
-        <v>2759.0305159695517</v>
+        <v>2890.4129214919117</v>
       </c>
       <c r="Z8" s="3">
         <f t="shared" si="2"/>
-        <v>2890.4129214919117</v>
-      </c>
-      <c r="AA8" s="3">
-        <f t="shared" si="2"/>
         <v>3021.7953270142712</v>
       </c>
-      <c r="AB8" s="15">
+      <c r="AA8" s="15">
         <f t="shared" si="3"/>
         <v>3153.1777325366306</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
@@ -1794,78 +5578,74 @@
       </c>
       <c r="K9" s="3">
         <f t="shared" si="0"/>
-        <v>762.0179520296856</v>
+        <v>870.87765946249783</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="0"/>
-        <v>870.87765946249783</v>
-      </c>
-      <c r="M9" s="3">
-        <f t="shared" si="0"/>
         <v>979.73736689531006</v>
       </c>
+      <c r="M9" s="5">
+        <f t="shared" si="1"/>
+        <v>1088.5970743281223</v>
+      </c>
       <c r="N9" s="5">
         <f t="shared" si="1"/>
-        <v>1088.5970743281223</v>
+        <v>1197.4567817609347</v>
       </c>
       <c r="O9" s="5">
         <f t="shared" si="1"/>
-        <v>1197.4567817609347</v>
+        <v>1306.316489193747</v>
       </c>
       <c r="P9" s="5">
         <f t="shared" si="1"/>
-        <v>1306.316489193747</v>
-      </c>
-      <c r="Q9" s="5">
-        <f t="shared" si="1"/>
         <v>1415.176196626559</v>
       </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="1"/>
+        <v>1524.0359040593712</v>
+      </c>
       <c r="R9" s="2">
         <f t="shared" si="1"/>
-        <v>1524.0359040593712</v>
-      </c>
-      <c r="S9" s="2">
-        <f t="shared" si="1"/>
         <v>1632.8956114921834</v>
       </c>
+      <c r="S9" s="4">
+        <f t="shared" si="1"/>
+        <v>1741.7553189249957</v>
+      </c>
       <c r="T9" s="4">
         <f t="shared" si="1"/>
-        <v>1741.7553189249957</v>
+        <v>1850.6150263578081</v>
       </c>
       <c r="U9" s="4">
         <f t="shared" si="1"/>
-        <v>1850.6150263578081</v>
+        <v>1959.4747337906201</v>
       </c>
       <c r="V9" s="4">
-        <f t="shared" si="1"/>
-        <v>1959.4747337906201</v>
+        <f t="shared" si="2"/>
+        <v>2068.3344412234328</v>
       </c>
       <c r="W9" s="4">
         <f t="shared" si="2"/>
-        <v>2068.3344412234328</v>
+        <v>2177.1941486562446</v>
       </c>
       <c r="X9" s="4">
         <f t="shared" si="2"/>
-        <v>2177.1941486562446</v>
+        <v>2286.0538560890573</v>
       </c>
       <c r="Y9" s="4">
         <f t="shared" si="2"/>
-        <v>2286.0538560890573</v>
-      </c>
-      <c r="Z9" s="4">
-        <f t="shared" si="2"/>
         <v>2394.9135635218695</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="Z9" s="3">
         <f t="shared" si="2"/>
         <v>2503.7732709546817</v>
       </c>
-      <c r="AB9" s="16">
+      <c r="AA9" s="16">
         <f t="shared" si="3"/>
         <v>2612.6329783874939</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
@@ -1903,113 +5683,109 @@
         <f t="shared" si="0"/>
         <v>630.63554650732601</v>
       </c>
-      <c r="K10" s="4">
-        <f t="shared" si="0"/>
-        <v>630.63554650732601</v>
+      <c r="K10" s="3">
+        <f t="shared" si="0"/>
+        <v>720.72633886551546</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="0"/>
-        <v>720.72633886551546</v>
+        <v>810.81713122370491</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="0"/>
-        <v>810.81713122370491</v>
+        <f t="shared" si="1"/>
+        <v>900.90792358189435</v>
       </c>
       <c r="N10" s="3">
         <f t="shared" si="1"/>
-        <v>900.90792358189435</v>
-      </c>
-      <c r="O10" s="3">
-        <f t="shared" si="1"/>
         <v>990.99871594008391</v>
       </c>
+      <c r="O10" s="5">
+        <f t="shared" si="1"/>
+        <v>1081.0895082982734</v>
+      </c>
       <c r="P10" s="5">
         <f t="shared" si="1"/>
-        <v>1081.0895082982734</v>
+        <v>1171.1803006564626</v>
       </c>
       <c r="Q10" s="5">
         <f t="shared" si="1"/>
-        <v>1171.1803006564626</v>
+        <v>1261.271093014652</v>
       </c>
       <c r="R10" s="5">
         <f t="shared" si="1"/>
-        <v>1261.271093014652</v>
-      </c>
-      <c r="S10" s="5">
-        <f t="shared" si="1"/>
         <v>1351.3618853728417</v>
       </c>
+      <c r="S10" s="4">
+        <f t="shared" si="1"/>
+        <v>1441.4526777310309</v>
+      </c>
       <c r="T10" s="4">
         <f t="shared" si="1"/>
-        <v>1441.4526777310309</v>
+        <v>1531.5434700892206</v>
       </c>
       <c r="U10" s="4">
         <f t="shared" si="1"/>
-        <v>1531.5434700892206</v>
+        <v>1621.6342624474098</v>
       </c>
       <c r="V10" s="4">
-        <f t="shared" si="1"/>
-        <v>1621.6342624474098</v>
+        <f t="shared" si="2"/>
+        <v>1711.7250548055995</v>
       </c>
       <c r="W10" s="4">
         <f t="shared" si="2"/>
-        <v>1711.7250548055995</v>
+        <v>1801.8158471637887</v>
       </c>
       <c r="X10" s="4">
         <f t="shared" si="2"/>
-        <v>1801.8158471637887</v>
+        <v>1891.9066395219784</v>
       </c>
       <c r="Y10" s="4">
         <f t="shared" si="2"/>
-        <v>1891.9066395219784</v>
+        <v>1981.9974318801678</v>
       </c>
       <c r="Z10" s="4">
         <f t="shared" si="2"/>
-        <v>1981.9974318801678</v>
-      </c>
-      <c r="AA10" s="4">
-        <f t="shared" si="2"/>
         <v>2072.0882242383573</v>
       </c>
-      <c r="AB10" s="5">
+      <c r="AA10" s="5">
         <f t="shared" si="3"/>
         <v>2162.1790165965467</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="12">
         <v>3.25</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="X12" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="21"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="33"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="L13" s="28"/>
-      <c r="M13" s="26" t="s">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="X13" s="19"/>
+      <c r="Y13" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="N13" s="26"/>
-      <c r="O13" s="27"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="26"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="29"/>
-      <c r="M14" s="22" t="s">
+      <c r="X14" s="20"/>
+      <c r="Y14" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="22"/>
-      <c r="O14" s="23"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="28"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2019,14 +5795,14 @@
       <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="30"/>
-      <c r="M15" s="22" t="s">
+      <c r="X15" s="21"/>
+      <c r="Y15" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="N15" s="22"/>
-      <c r="O15" s="23"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="28"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2034,14 +5810,14 @@
         <f>IF($B$15="17""",((('Factory Tire Sizes'!$B$2/25.4)*('Factory Tire Sizes'!$C$2/100)*2)+'Factory Tire Sizes'!$D$2)*PI(),IF($B$15="18""",((('Factory Tire Sizes'!$B$3/25.4)*('Factory Tire Sizes'!$C$3/100)*2)+'Factory Tire Sizes'!$D$3)*PI(),IF($B$15="20""",((('Factory Tire Sizes'!$B$4/25.4)*('Factory Tire Sizes'!$C$4/100)*2)+'Factory Tire Sizes'!$D$4)*PI(),((($B$16/25.4)*($B$17/100)*2)+$B$18)*PI())))</f>
         <v>91.427767304471459</v>
       </c>
-      <c r="L16" s="31"/>
-      <c r="M16" s="24" t="s">
+      <c r="X16" s="22"/>
+      <c r="Y16" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="N16" s="24"/>
-      <c r="O16" s="25"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="30"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2049,7 +5825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2058,7 +5834,7 @@
         <v>29.102362204724411</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -2066,35 +5842,34 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="33">
-        <f>AVERAGE(F2,G3:H3,I4:K4,L5:M5,O6:Q6,R7:T7,T8:W8,W9:Z9,AA10:AB10)</f>
-        <v>2290.5114734192798</v>
+      <c r="B21" s="24">
+        <f>AVERAGE(F2,G3:H3,I4:J4,K5:L5,N6:P6,Q7:S7,S8:V8,V9:Y9,Z10:AA10)</f>
+        <v>2280.9944094167672</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="33">
-        <f>AVERAGE(E3,F4:G4,G5:H5,I6:K6,J7:M7,L8:O8,N9:Q9,P10:T10)</f>
-        <v>1227.1867432391371</v>
+      <c r="B22" s="24">
+        <f>AVERAGE(E3,F4:G4,G5:H5,I6:J6,J7:L7,K8:N8,M9:P9,O10:S10)</f>
+        <v>1230.5063930879876</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="X12:AA12"/>
   </mergeCells>
-  <conditionalFormatting sqref="D2:AB10">
+  <conditionalFormatting sqref="D2:AA10">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="notBetween">
       <formula>600</formula>
       <formula>6400</formula>
@@ -2112,7 +5887,7 @@
       <formula>1500</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
+  <conditionalFormatting sqref="X13">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="notBetween">
       <formula>600</formula>
       <formula>6400</formula>
@@ -2137,6 +5912,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
